--- a/data/cars.xlsx
+++ b/data/cars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerzic\Documents\GitHub\Practice\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVARCAR\Desktop\coding\Practice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514B7417-DA52-4ABD-B0F9-3E388BC11253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94EF54-8A80-4C6C-AB7A-465F5CF8C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>auto</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,6 +580,144 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>26000</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>130000</v>
+      </c>
+      <c r="E8">
+        <v>280</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>35000</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>45000</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>15600</v>
+      </c>
+      <c r="C10">
+        <v>2015</v>
+      </c>
+      <c r="D10">
+        <v>210000</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>26000</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11">
+        <v>130000</v>
+      </c>
+      <c r="E11">
+        <v>280</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>35000</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>45000</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15600</v>
+      </c>
+      <c r="C13">
+        <v>2015</v>
+      </c>
+      <c r="D13">
+        <v>210000</v>
+      </c>
+      <c r="E13">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
